--- a/evals/1019_evals_amrit.xlsx
+++ b/evals/1019_evals_amrit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\findp\emphasis_markov\evals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4407C-15FB-4339-98E9-E36C674A668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68316FB-FDDD-4616-87E8-B37CC5F0CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -806,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,144 +1438,130 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f>AVERAGE(B3:B16)</f>
+        <v>161.29651549785714</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:E19" si="1">AVERAGE(C3:C16)</f>
+        <v>163.97010862571429</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>140.25254282642854</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>549.66022884142853</v>
+      </c>
       <c r="H19" t="s">
         <v>44</v>
       </c>
       <c r="I19">
-        <f>COUNTIF(I3:I16, "&lt;0.001")</f>
+        <f t="shared" ref="I19:N19" si="2">COUNTIF(I3:I16, "&lt;0.001")</f>
         <v>10</v>
       </c>
       <c r="J19">
-        <f>COUNTIF(J3:J16, "&lt;0.001")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K19">
-        <f>COUNTIF(K3:K16, "&lt;0.001")</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L19">
-        <f>COUNTIF(L3:L16, "&lt;0.001")</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M19">
-        <f>COUNTIF(M3:M16, "&lt;0.001")</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N19">
-        <f>COUNTIF(N3:N16, "&lt;0.001")</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
       <c r="H20" t="s">
         <v>45</v>
       </c>
       <c r="I20">
-        <f>COUNTIF(I3:I17, "&lt;0.0083")-I19</f>
+        <f t="shared" ref="I20:N20" si="3">COUNTIF(I3:I17, "&lt;0.0083")-I19</f>
         <v>1</v>
       </c>
       <c r="J20">
-        <f>COUNTIF(J3:J17, "&lt;0.0083")-J19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>COUNTIF(K3:K17, "&lt;0.0083")-K19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>COUNTIF(L3:L17, "&lt;0.0083")-L19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M20">
-        <f>COUNTIF(M3:M17, "&lt;0.0083")-M19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>COUNTIF(N3:N17, "&lt;0.0083")-N19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I21">
-        <f>COUNTIF(I3:I17, "&gt;=0.0083")</f>
+        <f t="shared" ref="I21:N21" si="4">COUNTIF(I3:I17, "&gt;=0.0083")</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>COUNTIF(J3:J17, "&gt;=0.0083")</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K21">
-        <f>COUNTIF(K3:K17, "&gt;=0.0083")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L21">
-        <f>COUNTIF(L3:L17, "&gt;=0.0083")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M21">
-        <f>COUNTIF(M3:M17, "&gt;=0.0083")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N21">
-        <f>COUNTIF(N3:N17, "&gt;=0.0083")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1592,223 +1578,257 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>1.3362647000000001</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.0242592100000001</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>29.771498909999998</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>552.92999953000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>901.61706688000004</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>919.825602</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>895.33441142000004</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>581.37459554999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>102.21517407</v>
+        <v>1.3362647000000001</v>
       </c>
       <c r="C27">
-        <v>85.641749799999999</v>
+        <v>1.0242592100000001</v>
       </c>
       <c r="D27">
-        <v>191.11535762</v>
+        <v>29.771498909999998</v>
       </c>
       <c r="E27">
-        <v>596.34383695999998</v>
+        <v>552.92999953000003</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>147.40520573000001</v>
+        <v>901.61706688000004</v>
       </c>
       <c r="C28">
-        <v>207.51132000000001</v>
+        <v>919.825602</v>
       </c>
       <c r="D28">
-        <v>438.91408963999999</v>
+        <v>895.33441142000004</v>
       </c>
       <c r="E28">
-        <v>551.88538030999996</v>
+        <v>581.37459554999998</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>35.299531799999997</v>
+        <v>102.21517407</v>
       </c>
       <c r="C29">
-        <v>31.751531799999999</v>
+        <v>85.641749799999999</v>
       </c>
       <c r="D29">
-        <v>86.502004229999997</v>
+        <v>191.11535762</v>
       </c>
       <c r="E29">
-        <v>475.96504235999998</v>
+        <v>596.34383695999998</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>6.8071759500000004</v>
+        <v>147.40520573000001</v>
       </c>
       <c r="C30">
-        <v>5.6606884500000003</v>
+        <v>207.51132000000001</v>
       </c>
       <c r="D30">
-        <v>59.399351449999997</v>
+        <v>438.91408963999999</v>
       </c>
       <c r="E30">
-        <v>303.95551069999999</v>
+        <v>551.88538030999996</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>17.000288959999999</v>
+        <v>35.299531799999997</v>
       </c>
       <c r="C31">
-        <v>14.9821841</v>
+        <v>31.751531799999999</v>
       </c>
       <c r="D31">
-        <v>80.037240420000003</v>
+        <v>86.502004229999997</v>
       </c>
       <c r="E31">
-        <v>282.64099024000001</v>
+        <v>475.96504235999998</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>18.090172509999999</v>
+        <v>6.8071759500000004</v>
       </c>
       <c r="C32">
-        <v>18.6309495</v>
+        <v>5.6606884500000003</v>
       </c>
       <c r="D32">
-        <v>140.80070717000001</v>
+        <v>59.399351449999997</v>
       </c>
       <c r="E32">
-        <v>397.90605259</v>
+        <v>303.95551069999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>19.4315648</v>
+        <v>17.000288959999999</v>
       </c>
       <c r="C33">
-        <v>0.71965266000000006</v>
+        <v>14.9821841</v>
       </c>
       <c r="D33">
-        <v>110.21376243</v>
+        <v>80.037240420000003</v>
       </c>
       <c r="E33">
-        <v>373.19703118000001</v>
+        <v>282.64099024000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>62.30040675</v>
+        <v>18.090172509999999</v>
       </c>
       <c r="C34">
-        <v>66.6528864</v>
+        <v>18.6309495</v>
       </c>
       <c r="D34">
-        <v>26.529361250000001</v>
+        <v>140.80070717000001</v>
       </c>
       <c r="E34">
-        <v>458.46008148999999</v>
+        <v>397.90605259</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>4.2211234400000004</v>
+        <v>19.4315648</v>
       </c>
       <c r="C35">
-        <v>6.2461075299999997</v>
+        <v>0.71965266000000006</v>
       </c>
       <c r="D35">
-        <v>10.05421713</v>
+        <v>110.21376243</v>
       </c>
       <c r="E35">
-        <v>457.65685703999998</v>
+        <v>373.19703118000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>62.30040675</v>
+      </c>
+      <c r="C36">
+        <v>66.6528864</v>
+      </c>
+      <c r="D36">
+        <v>26.529361250000001</v>
+      </c>
+      <c r="E36">
+        <v>458.46008148999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>4.2211234400000004</v>
+      </c>
+      <c r="C37">
+        <v>6.2461075299999997</v>
+      </c>
+      <c r="D37">
+        <v>10.05421713</v>
+      </c>
+      <c r="E37">
+        <v>457.65685703999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <f>AVERAGE(B25:B35)</f>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f>AVERAGE(B27:B37)</f>
         <v>119.61127050818185</v>
       </c>
-      <c r="C37">
-        <f t="shared" ref="C37:E37" si="1">AVERAGE(C25:C35)</f>
+      <c r="C39">
+        <f t="shared" ref="C39:E39" si="5">AVERAGE(C27:C37)</f>
         <v>123.51335740454546</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
+      <c r="D39">
+        <f t="shared" si="5"/>
         <v>188.06109106090909</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
+      <c r="E39">
+        <f t="shared" si="5"/>
         <v>457.48321617727265</v>
       </c>
     </row>
